--- a/samples/additions.xlsx
+++ b/samples/additions.xlsx
@@ -191,9 +191,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -213,13 +217,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1149"/>
+  <dimension ref="A1:V2143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1147" activeCellId="0" sqref="F1147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
@@ -6136,6 +6140,4976 @@
       </c>
       <c r="D1149" s="0" t="n">
         <v>1149</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1150" s="1" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1151" s="1" t="n">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1152" s="1" t="n">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1153" s="1" t="n">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1154" s="1" t="n">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1155" s="1" t="n">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1156" s="1" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1157" s="1" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1158" s="1" t="n">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1159" s="1" t="n">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1160" s="1" t="n">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1161" s="1" t="n">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1162" s="1" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1163" s="1" t="n">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1164" s="1" t="n">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1165" s="1" t="n">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1166" s="1" t="n">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1167" s="1" t="n">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1168" s="1" t="n">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1169" s="1" t="n">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1170" s="1" t="n">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1171" s="1" t="n">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1172" s="1" t="n">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1173" s="1" t="n">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1174" s="1" t="n">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1175" s="1" t="n">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1176" s="1" t="n">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1177" s="1" t="n">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1178" s="1" t="n">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1179" s="1" t="n">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1180" s="1" t="n">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1181" s="1" t="n">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1182" s="1" t="n">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1183" s="1" t="n">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1184" s="1" t="n">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1185" s="1" t="n">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1186" s="1" t="n">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1187" s="1" t="n">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1188" s="1" t="n">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1189" s="1" t="n">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1190" s="1" t="n">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1191" s="1" t="n">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1192" s="1" t="n">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1193" s="1" t="n">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1194" s="1" t="n">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1195" s="1" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1196" s="1" t="n">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1197" s="1" t="n">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1198" s="1" t="n">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1199" s="1" t="n">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1200" s="1" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1201" s="1" t="n">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1202" s="1" t="n">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1203" s="1" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1204" s="1" t="n">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1205" s="1" t="n">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1206" s="1" t="n">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1207" s="1" t="n">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1208" s="1" t="n">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1209" s="1" t="n">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1210" s="1" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1211" s="1" t="n">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1212" s="1" t="n">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1213" s="1" t="n">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1214" s="1" t="n">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1215" s="1" t="n">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1216" s="1" t="n">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1217" s="1" t="n">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1218" s="1" t="n">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1219" s="1" t="n">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1220" s="1" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1221" s="1" t="n">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1222" s="1" t="n">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1223" s="1" t="n">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1224" s="1" t="n">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1225" s="1" t="n">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1226" s="1" t="n">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1227" s="1" t="n">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1228" s="1" t="n">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1229" s="1" t="n">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1230" s="1" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1231" s="1" t="n">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1232" s="1" t="n">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1233" s="1" t="n">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1234" s="1" t="n">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1235" s="1" t="n">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1236" s="1" t="n">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1237" s="1" t="n">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1238" s="1" t="n">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1239" s="1" t="n">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1240" s="1" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1241" s="1" t="n">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1242" s="1" t="n">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1243" s="1" t="n">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1244" s="1" t="n">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1245" s="1" t="n">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1246" s="1" t="n">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1247" s="1" t="n">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1248" s="1" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1249" s="1" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1250" s="1" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1251" s="1" t="n">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1252" s="1" t="n">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1253" s="1" t="n">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1254" s="1" t="n">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1255" s="1" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1256" s="1" t="n">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1257" s="1" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1258" s="1" t="n">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1259" s="1" t="n">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1260" s="1" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1261" s="1" t="n">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1262" s="1" t="n">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1263" s="1" t="n">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1264" s="1" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1265" s="1" t="n">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1266" s="1" t="n">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1267" s="1" t="n">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1268" s="1" t="n">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1269" s="1" t="n">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1270" s="1" t="n">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1271" s="1" t="n">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1272" s="1" t="n">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1273" s="1" t="n">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1274" s="1" t="n">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1275" s="1" t="n">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1276" s="1" t="n">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1277" s="1" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1278" s="1" t="n">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1279" s="1" t="n">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1280" s="1" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1281" s="1" t="n">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1282" s="1" t="n">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1283" s="1" t="n">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1284" s="1" t="n">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1285" s="1" t="n">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1286" s="1" t="n">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1287" s="1" t="n">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1288" s="1" t="n">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1289" s="1" t="n">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1290" s="1" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1291" s="1" t="n">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1292" s="1" t="n">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1293" s="1" t="n">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1294" s="1" t="n">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1295" s="1" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1296" s="1" t="n">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1297" s="1" t="n">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1298" s="1" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1299" s="1" t="n">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1300" s="1" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1301" s="1" t="n">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1302" s="1" t="n">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1303" s="1" t="n">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1304" s="1" t="n">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1305" s="1" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1306" s="1" t="n">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1307" s="1" t="n">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1308" s="1" t="n">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1309" s="1" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1310" s="1" t="n">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1311" s="1" t="n">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1312" s="1" t="n">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1313" s="1" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1314" s="1" t="n">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1315" s="1" t="n">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1316" s="1" t="n">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1317" s="1" t="n">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1318" s="1" t="n">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1319" s="1" t="n">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1320" s="1" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1321" s="1" t="n">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1322" s="1" t="n">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1323" s="1" t="n">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1324" s="1" t="n">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1325" s="1" t="n">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1326" s="1" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1327" s="1" t="n">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1328" s="1" t="n">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1329" s="1" t="n">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1330" s="1" t="n">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1331" s="1" t="n">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1332" s="1" t="n">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1333" s="1" t="n">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1334" s="1" t="n">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1335" s="1" t="n">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1336" s="1" t="n">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1337" s="1" t="n">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1338" s="1" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1339" s="1" t="n">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1340" s="1" t="n">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1341" s="1" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1342" s="1" t="n">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1343" s="1" t="n">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1344" s="1" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1345" s="1" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1346" s="1" t="n">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1347" s="1" t="n">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1348" s="1" t="n">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1349" s="1" t="n">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1350" s="1" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1351" s="1" t="n">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1352" s="1" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1353" s="1" t="n">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1354" s="1" t="n">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1355" s="1" t="n">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1356" s="1" t="n">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1357" s="1" t="n">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1358" s="1" t="n">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1359" s="1" t="n">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1360" s="1" t="n">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1361" s="1" t="n">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1362" s="1" t="n">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1363" s="1" t="n">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1364" s="1" t="n">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1365" s="1" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1366" s="1" t="n">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1367" s="1" t="n">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1368" s="1" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1369" s="1" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1370" s="1" t="n">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1371" s="1" t="n">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1372" s="1" t="n">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1373" s="1" t="n">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1374" s="1" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1375" s="1" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1376" s="1" t="n">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1377" s="1" t="n">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1378" s="1" t="n">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1379" s="1" t="n">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1380" s="1" t="n">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1381" s="1" t="n">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1382" s="1" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1383" s="1" t="n">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1384" s="1" t="n">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1385" s="1" t="n">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1386" s="1" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1387" s="1" t="n">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1388" s="1" t="n">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1389" s="1" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1390" s="1" t="n">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1391" s="1" t="n">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1392" s="1" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1393" s="1" t="n">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1394" s="1" t="n">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1395" s="1" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1396" s="1" t="n">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1397" s="1" t="n">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1398" s="1" t="n">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1399" s="1" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1400" s="1" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1401" s="1" t="n">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1402" s="1" t="n">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1403" s="1" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1404" s="1" t="n">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1405" s="1" t="n">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1406" s="1" t="n">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1407" s="1" t="n">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1408" s="1" t="n">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1409" s="1" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1410" s="1" t="n">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1411" s="1" t="n">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1412" s="1" t="n">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1413" s="1" t="n">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1414" s="1" t="n">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1415" s="1" t="n">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1416" s="1" t="n">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1417" s="1" t="n">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1418" s="1" t="n">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1419" s="1" t="n">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1420" s="1" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1421" s="1" t="n">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1422" s="1" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1423" s="1" t="n">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1424" s="1" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1425" s="1" t="n">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1426" s="1" t="n">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1427" s="1" t="n">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1428" s="1" t="n">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1429" s="1" t="n">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1430" s="1" t="n">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1431" s="1" t="n">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1432" s="1" t="n">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1433" s="1" t="n">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1434" s="1" t="n">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1435" s="1" t="n">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1436" s="1" t="n">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1437" s="1" t="n">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1438" s="1" t="n">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1439" s="1" t="n">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1440" s="1" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1441" s="1" t="n">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1442" s="1" t="n">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1443" s="1" t="n">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1444" s="1" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1445" s="1" t="n">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1446" s="1" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1447" s="1" t="n">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1448" s="1" t="n">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1449" s="1" t="n">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1450" s="1" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1451" s="1" t="n">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1452" s="1" t="n">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1453" s="1" t="n">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1454" s="1" t="n">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1455" s="1" t="n">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1456" s="1" t="n">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1457" s="1" t="n">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1458" s="1" t="n">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1459" s="1" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1460" s="1" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1461" s="1" t="n">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1462" s="1" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1463" s="1" t="n">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1464" s="1" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1465" s="1" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1466" s="1" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1467" s="1" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1468" s="1" t="n">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1469" s="1" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1470" s="1" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1471" s="1" t="n">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1472" s="1" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1473" s="1" t="n">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1474" s="1" t="n">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1475" s="1" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1476" s="1" t="n">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1477" s="1" t="n">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1478" s="1" t="n">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1479" s="1" t="n">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1480" s="1" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1481" s="1" t="n">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1482" s="1" t="n">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1483" s="1" t="n">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1484" s="1" t="n">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1485" s="1" t="n">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1486" s="1" t="n">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1487" s="1" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1488" s="1" t="n">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1489" s="1" t="n">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1490" s="1" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1491" s="1" t="n">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1492" s="1" t="n">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1493" s="1" t="n">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1494" s="1" t="n">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1495" s="1" t="n">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1496" s="1" t="n">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1497" s="1" t="n">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1498" s="1" t="n">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1499" s="1" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1500" s="1" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1501" s="1" t="n">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1502" s="1" t="n">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1503" s="1" t="n">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1504" s="1" t="n">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1505" s="1" t="n">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1506" s="1" t="n">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1507" s="1" t="n">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1508" s="1" t="n">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1509" s="1" t="n">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1510" s="1" t="n">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1511" s="1" t="n">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1512" s="1" t="n">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1513" s="1" t="n">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1514" s="1" t="n">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1515" s="1" t="n">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1516" s="1" t="n">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1517" s="1" t="n">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1518" s="1" t="n">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1519" s="1" t="n">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1520" s="1" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1521" s="1" t="n">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1522" s="1" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1523" s="1" t="n">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1524" s="1" t="n">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1525" s="1" t="n">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1526" s="1" t="n">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1527" s="1" t="n">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1528" s="1" t="n">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1529" s="1" t="n">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1530" s="1" t="n">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1531" s="1" t="n">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1532" s="1" t="n">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1533" s="1" t="n">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1534" s="1" t="n">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1535" s="1" t="n">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1536" s="1" t="n">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1537" s="1" t="n">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1538" s="1" t="n">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1539" s="1" t="n">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1540" s="1" t="n">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1541" s="1" t="n">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1542" s="1" t="n">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1543" s="1" t="n">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1544" s="1" t="n">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1545" s="1" t="n">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1546" s="1" t="n">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1547" s="1" t="n">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1548" s="1" t="n">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1549" s="1" t="n">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1550" s="1" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1551" s="1" t="n">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1552" s="1" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1553" s="1" t="n">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1554" s="1" t="n">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1555" s="1" t="n">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1556" s="1" t="n">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1557" s="1" t="n">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1558" s="1" t="n">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1559" s="1" t="n">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1560" s="1" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1561" s="1" t="n">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1562" s="1" t="n">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1563" s="1" t="n">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1564" s="1" t="n">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1565" s="1" t="n">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1566" s="1" t="n">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1567" s="1" t="n">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1568" s="1" t="n">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1569" s="1" t="n">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1570" s="1" t="n">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1571" s="1" t="n">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1572" s="1" t="n">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1573" s="1" t="n">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1574" s="1" t="n">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1575" s="1" t="n">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1576" s="1" t="n">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1577" s="1" t="n">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1578" s="1" t="n">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1579" s="1" t="n">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1580" s="1" t="n">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1581" s="1" t="n">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1582" s="1" t="n">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1583" s="1" t="n">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1584" s="1" t="n">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1585" s="1" t="n">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1586" s="1" t="n">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1587" s="1" t="n">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1588" s="1" t="n">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1589" s="1" t="n">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1590" s="1" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1591" s="1" t="n">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1592" s="1" t="n">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1593" s="1" t="n">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1594" s="1" t="n">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1595" s="1" t="n">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1596" s="1" t="n">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1597" s="1" t="n">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1598" s="1" t="n">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1599" s="1" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1600" s="1" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1601" s="1" t="n">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1602" s="1" t="n">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1603" s="1" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1604" s="1" t="n">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1605" s="1" t="n">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1606" s="1" t="n">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1607" s="1" t="n">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1608" s="1" t="n">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1609" s="1" t="n">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1610" s="1" t="n">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1611" s="1" t="n">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1612" s="1" t="n">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1613" s="1" t="n">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1614" s="1" t="n">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1615" s="1" t="n">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1616" s="1" t="n">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1617" s="1" t="n">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1618" s="1" t="n">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1619" s="1" t="n">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1620" s="1" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1621" s="1" t="n">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1622" s="1" t="n">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1623" s="1" t="n">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1624" s="1" t="n">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1625" s="1" t="n">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1626" s="1" t="n">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1627" s="1" t="n">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1628" s="1" t="n">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1629" s="1" t="n">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1630" s="1" t="n">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1631" s="1" t="n">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1632" s="1" t="n">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1633" s="1" t="n">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1634" s="1" t="n">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1635" s="1" t="n">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1636" s="1" t="n">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1637" s="1" t="n">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1638" s="1" t="n">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1639" s="1" t="n">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1640" s="1" t="n">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1641" s="1" t="n">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1642" s="1" t="n">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1643" s="1" t="n">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1644" s="1" t="n">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1645" s="1" t="n">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1646" s="1" t="n">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1647" s="1" t="n">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1648" s="1" t="n">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1649" s="1" t="n">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1650" s="1" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1651" s="1" t="n">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1652" s="1" t="n">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1653" s="1" t="n">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1654" s="1" t="n">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1655" s="1" t="n">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1656" s="1" t="n">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1657" s="1" t="n">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1658" s="1" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1659" s="1" t="n">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1660" s="1" t="n">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1661" s="1" t="n">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1662" s="1" t="n">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1663" s="1" t="n">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1664" s="1" t="n">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1665" s="1" t="n">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1666" s="1" t="n">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1667" s="1" t="n">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1668" s="1" t="n">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1669" s="1" t="n">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1670" s="1" t="n">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1671" s="1" t="n">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1672" s="1" t="n">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1673" s="1" t="n">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1674" s="1" t="n">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1675" s="1" t="n">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1676" s="1" t="n">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1677" s="1" t="n">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1678" s="1" t="n">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1679" s="1" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1680" s="1" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1681" s="1" t="n">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1682" s="1" t="n">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1683" s="1" t="n">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1684" s="1" t="n">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1685" s="1" t="n">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1686" s="1" t="n">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1687" s="1" t="n">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1688" s="1" t="n">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1689" s="1" t="n">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1690" s="1" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1691" s="1" t="n">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1692" s="1" t="n">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1693" s="1" t="n">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1694" s="1" t="n">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1695" s="1" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1696" s="1" t="n">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1697" s="1" t="n">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1698" s="1" t="n">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1699" s="1" t="n">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1700" s="1" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1701" s="1" t="n">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1702" s="1" t="n">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1703" s="1" t="n">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1704" s="1" t="n">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1705" s="1" t="n">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1706" s="1" t="n">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1707" s="1" t="n">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1708" s="1" t="n">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1709" s="1" t="n">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1710" s="1" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1711" s="1" t="n">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1712" s="1" t="n">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1713" s="1" t="n">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1714" s="1" t="n">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1715" s="1" t="n">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1716" s="1" t="n">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1717" s="1" t="n">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1718" s="1" t="n">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1719" s="1" t="n">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1720" s="1" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1721" s="1" t="n">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1722" s="1" t="n">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1723" s="1" t="n">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1724" s="1" t="n">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1725" s="1" t="n">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1726" s="1" t="n">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1727" s="1" t="n">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1728" s="1" t="n">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1729" s="1" t="n">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1730" s="1" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1731" s="1" t="n">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1732" s="1" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1733" s="1" t="n">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1734" s="1" t="n">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1735" s="1" t="n">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1736" s="1" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1737" s="1" t="n">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1738" s="1" t="n">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1739" s="1" t="n">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1740" s="1" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1741" s="1" t="n">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1742" s="1" t="n">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1743" s="1" t="n">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1744" s="1" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1745" s="1" t="n">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1746" s="1" t="n">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1747" s="1" t="n">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1748" s="1" t="n">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1749" s="1" t="n">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1750" s="1" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1751" s="1" t="n">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1752" s="1" t="n">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1753" s="1" t="n">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1754" s="1" t="n">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="1755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1755" s="1" t="n">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1756" s="1" t="n">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1757" s="1" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1758" s="1" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1759" s="1" t="n">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1760" s="1" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1761" s="1" t="n">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1762" s="1" t="n">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1763" s="1" t="n">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1764" s="1" t="n">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1765" s="1" t="n">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1766" s="1" t="n">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1767" s="1" t="n">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1768" s="1" t="n">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1769" s="1" t="n">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1770" s="1" t="n">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1771" s="1" t="n">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1772" s="1" t="n">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1773" s="1" t="n">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1774" s="1" t="n">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1775" s="1" t="n">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1776" s="1" t="n">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1777" s="1" t="n">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1778" s="1" t="n">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1779" s="1" t="n">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1780" s="1" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1781" s="1" t="n">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1782" s="1" t="n">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1783" s="1" t="n">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1784" s="1" t="n">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1785" s="1" t="n">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1786" s="1" t="n">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1787" s="1" t="n">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1788" s="1" t="n">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1789" s="1" t="n">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1790" s="1" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1791" s="1" t="n">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1792" s="1" t="n">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1793" s="1" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1794" s="1" t="n">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1795" s="1" t="n">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1796" s="1" t="n">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1797" s="1" t="n">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1798" s="1" t="n">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1799" s="1" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1800" s="1" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1801" s="1" t="n">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1802" s="1" t="n">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1803" s="1" t="n">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1804" s="1" t="n">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1805" s="1" t="n">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1806" s="1" t="n">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1807" s="1" t="n">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1808" s="1" t="n">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1809" s="1" t="n">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1810" s="1" t="n">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1811" s="1" t="n">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1812" s="1" t="n">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1813" s="1" t="n">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1814" s="1" t="n">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1815" s="1" t="n">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1816" s="1" t="n">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1817" s="1" t="n">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1818" s="1" t="n">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1819" s="1" t="n">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1820" s="1" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1821" s="1" t="n">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1822" s="1" t="n">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1823" s="1" t="n">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1824" s="1" t="n">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1825" s="1" t="n">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1826" s="1" t="n">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1827" s="1" t="n">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1828" s="1" t="n">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1829" s="1" t="n">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1830" s="1" t="n">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1831" s="1" t="n">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1832" s="1" t="n">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1833" s="1" t="n">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1834" s="1" t="n">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1835" s="1" t="n">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1836" s="1" t="n">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1837" s="1" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1838" s="1" t="n">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1839" s="1" t="n">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1840" s="1" t="n">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1841" s="1" t="n">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1842" s="1" t="n">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1843" s="1" t="n">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1844" s="1" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1845" s="1" t="n">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1846" s="1" t="n">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1847" s="1" t="n">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1848" s="1" t="n">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1849" s="1" t="n">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1850" s="1" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1851" s="1" t="n">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1852" s="1" t="n">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1853" s="1" t="n">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1854" s="1" t="n">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1855" s="1" t="n">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1856" s="1" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1857" s="1" t="n">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1858" s="1" t="n">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1859" s="1" t="n">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1860" s="1" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1861" s="1" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1862" s="1" t="n">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1863" s="1" t="n">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1864" s="1" t="n">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1865" s="1" t="n">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1866" s="1" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1867" s="1" t="n">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1868" s="1" t="n">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1869" s="1" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1870" s="1" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1871" s="1" t="n">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1872" s="1" t="n">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1873" s="1" t="n">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1874" s="1" t="n">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1875" s="1" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1876" s="1" t="n">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1877" s="1" t="n">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1878" s="1" t="n">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1879" s="1" t="n">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1880" s="1" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1881" s="1" t="n">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1882" s="1" t="n">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1883" s="1" t="n">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1884" s="1" t="n">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1885" s="1" t="n">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1886" s="1" t="n">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1887" s="1" t="n">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1888" s="1" t="n">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1889" s="1" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1890" s="1" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1891" s="1" t="n">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1892" s="1" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1893" s="1" t="n">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1894" s="1" t="n">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1895" s="1" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1896" s="1" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1897" s="1" t="n">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1898" s="1" t="n">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1899" s="1" t="n">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1900" s="1" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1901" s="1" t="n">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1902" s="1" t="n">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1903" s="1" t="n">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1904" s="1" t="n">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1905" s="1" t="n">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1906" s="1" t="n">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1907" s="1" t="n">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1908" s="1" t="n">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1909" s="1" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1910" s="1" t="n">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1911" s="1" t="n">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1912" s="1" t="n">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1913" s="1" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1914" s="1" t="n">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1915" s="1" t="n">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1916" s="1" t="n">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1917" s="1" t="n">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1918" s="1" t="n">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1919" s="1" t="n">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1920" s="1" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1921" s="1" t="n">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1922" s="1" t="n">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1923" s="1" t="n">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1924" s="1" t="n">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1925" s="1" t="n">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1926" s="1" t="n">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1927" s="1" t="n">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1928" s="1" t="n">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1929" s="1" t="n">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1930" s="1" t="n">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1931" s="1" t="n">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1932" s="1" t="n">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1933" s="1" t="n">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1934" s="1" t="n">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1935" s="1" t="n">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1936" s="1" t="n">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1937" s="1" t="n">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1938" s="1" t="n">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1939" s="1" t="n">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1940" s="1" t="n">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1941" s="1" t="n">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1942" s="1" t="n">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1943" s="1" t="n">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1944" s="1" t="n">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1945" s="1" t="n">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1946" s="1" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1947" s="1" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1948" s="1" t="n">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1949" s="1" t="n">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1950" s="1" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1951" s="1" t="n">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1952" s="1" t="n">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1953" s="1" t="n">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1954" s="1" t="n">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1955" s="1" t="n">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1956" s="1" t="n">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1957" s="1" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1958" s="1" t="n">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1959" s="1" t="n">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1960" s="1" t="n">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1961" s="1" t="n">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1962" s="1" t="n">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1963" s="1" t="n">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1964" s="1" t="n">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1965" s="1" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1966" s="1" t="n">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1967" s="1" t="n">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1968" s="1" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1969" s="1" t="n">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1970" s="1" t="n">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1971" s="1" t="n">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1972" s="1" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1973" s="1" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1974" s="1" t="n">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1975" s="1" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1976" s="1" t="n">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1977" s="1" t="n">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1978" s="1" t="n">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1979" s="1" t="n">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1980" s="1" t="n">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1981" s="1" t="n">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1982" s="1" t="n">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1983" s="1" t="n">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1984" s="1" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1985" s="1" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1986" s="1" t="n">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1987" s="1" t="n">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1988" s="1" t="n">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1989" s="1" t="n">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1990" s="1" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1991" s="1" t="n">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1992" s="1" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1993" s="1" t="n">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1994" s="1" t="n">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1995" s="1" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1996" s="1" t="n">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1997" s="1" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1998" s="1" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="1999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1999" s="1" t="n">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="2000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2000" s="1" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2001" s="1" t="n">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2002" s="1" t="n">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="2003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2003" s="1" t="n">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="2004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2004" s="1" t="n">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2005" s="1" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2006" s="1" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2007" s="1" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="2008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2008" s="1" t="n">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="2009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2009" s="1" t="n">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2010" s="1" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="2011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2011" s="1" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2012" s="1" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2013" s="1" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="2014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2014" s="1" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2015" s="1" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2016" s="1" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2017" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2018" s="1" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2019" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2020" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2021" s="1" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2022" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2023" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2024" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2025" s="1" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2026" s="1" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="2027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2027" s="1" t="n">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2028" s="1" t="n">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2029" s="1" t="n">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2030" s="1" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2031" s="1" t="n">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="2032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2032" s="1" t="n">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="2033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2033" s="1" t="n">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="2034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2034" s="1" t="n">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2035" s="1" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2036" s="1" t="n">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="2037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2037" s="1" t="n">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="2038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2038" s="1" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2039" s="1" t="n">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="2040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2040" s="1" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2041" s="1" t="n">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="2042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2042" s="1" t="n">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2043" s="1" t="n">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="2044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2044" s="1" t="n">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2045" s="1" t="n">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="2046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2046" s="1" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2047" s="1" t="n">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="2048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2048" s="1" t="n">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="2049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2049" s="1" t="n">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="2050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2050" s="1" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2051" s="1" t="n">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="2052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2052" s="1" t="n">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="2053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2053" s="1" t="n">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="2054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2054" s="1" t="n">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="2055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2055" s="1" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2056" s="1" t="n">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="2057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2057" s="1" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="2058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2058" s="1" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="2059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2059" s="1" t="n">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2060" s="1" t="n">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="2061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2061" s="1" t="n">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="2062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2062" s="1" t="n">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="2063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2063" s="1" t="n">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2064" s="1" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="2065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2065" s="1" t="n">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="2066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2066" s="1" t="n">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="2067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2067" s="1" t="n">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2068" s="1" t="n">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="2069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2069" s="1" t="n">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2070" s="1" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2071" s="1" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2072" s="1" t="n">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="2073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2073" s="1" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="2074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2074" s="1" t="n">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="2075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2075" s="1" t="n">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="2076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2076" s="1" t="n">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="2077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2077" s="1" t="n">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="2078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2078" s="1" t="n">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="2079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2079" s="1" t="n">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="2080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2080" s="1" t="n">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="2081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2081" s="1" t="n">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="2082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2082" s="1" t="n">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="2083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2083" s="1" t="n">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="2084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2084" s="1" t="n">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="2085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2085" s="1" t="n">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2086" s="1" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="2087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2087" s="1" t="n">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="2088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2088" s="1" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="2089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2089" s="1" t="n">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="2090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2090" s="1" t="n">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="2091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2091" s="1" t="n">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="2092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2092" s="1" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="2093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2093" s="1" t="n">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="2094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2094" s="1" t="n">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="2095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2095" s="1" t="n">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="2096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2096" s="1" t="n">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="2097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2097" s="1" t="n">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="2098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2098" s="1" t="n">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="2099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2099" s="1" t="n">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="2100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2100" s="1" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2101" s="1" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2102" s="1" t="n">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="2103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2103" s="1" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="2104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2104" s="1" t="n">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="2105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2105" s="1" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="2106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2106" s="1" t="n">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="2107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2107" s="1" t="n">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="2108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2108" s="1" t="n">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="2109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2109" s="1" t="n">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="2110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2110" s="1" t="n">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="2111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2111" s="1" t="n">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="2112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2112" s="1" t="n">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="2113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2113" s="1" t="n">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="2114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2114" s="1" t="n">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="2115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2115" s="1" t="n">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="2116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2116" s="1" t="n">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="2117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2117" s="1" t="n">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="2118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2118" s="1" t="n">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="2119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2119" s="1" t="n">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="2120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2120" s="1" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="2121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2121" s="1" t="n">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="2122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2122" s="1" t="n">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="2123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2123" s="1" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="2124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2124" s="1" t="n">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="2125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2125" s="1" t="n">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="2126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2126" s="1" t="n">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="2127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2127" s="1" t="n">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="2128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2128" s="1" t="n">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="2129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2129" s="1" t="n">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="2130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2130" s="1" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="2131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2131" s="1" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="2132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2132" s="1" t="n">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="2133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2133" s="1" t="n">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="2134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2134" s="1" t="n">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="2135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2135" s="1" t="n">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="2136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2136" s="1" t="n">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="2137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2137" s="1" t="n">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="2138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2138" s="1" t="n">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="2139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2139" s="1" t="n">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="2140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2140" s="1" t="n">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="2141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2141" s="1" t="n">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2142" s="1" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="2143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2143" s="1" t="n">
+        <v>2143</v>
       </c>
     </row>
   </sheetData>
